--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187583.7561328554</v>
+        <v>-190130.8510673329</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>126.4052315198359</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>31.29622800133993</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>31.10811072719332</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>84.47586305981734</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>42.82850009385323</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>1.619981176371361</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20.57312125901545</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>216.2517856894777</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>370.0648965483583</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>36.80199454068629</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>67.3374237151332</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>142.0294255915594</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8253826161904521</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016457</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>199.298406692554</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819412</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.1557845699774</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016463</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487355</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>130.9398757025646</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>16.92025364381849</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377013</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3305008047038</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>3.475606507923247</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.0575603057045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>218.0379183711101</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>43.73846614325492</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637036</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>184.6141907640395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1688.365042002428</v>
+        <v>906.1570541554036</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>537.1945372149919</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>178.9288386082414</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>2074.96488206655</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X2" t="n">
-        <v>2074.96488206655</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y2" t="n">
-        <v>2074.96488206655</v>
+        <v>906.1570541554036</v>
       </c>
     </row>
     <row r="3">
@@ -4389,31 +4389,31 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908477</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143504</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458222</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
         <v>1248.170551105042</v>
@@ -4428,10 +4428,10 @@
         <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657496</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378427</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255069</v>
+        <v>601.2143975844875</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>453.3013040020944</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4522,16 +4522,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959893</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>859.685290191162</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C5" t="n">
-        <v>859.685290191162</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4586,31 +4586,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2560.702983777559</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2307.121923041738</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1976.059035698168</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1623.290380428054</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>1249.824622166974</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y5" t="n">
-        <v>859.685290191162</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.6745842800083</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="C7" t="n">
-        <v>476.7384013521014</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D7" t="n">
-        <v>326.6217619397656</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E7" t="n">
-        <v>326.6217619397656</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F7" t="n">
-        <v>326.6217619397656</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253778</v>
+        <v>998.4027442680054</v>
       </c>
       <c r="W7" t="n">
-        <v>1048.115628253778</v>
+        <v>998.4027442680054</v>
       </c>
       <c r="X7" t="n">
-        <v>1048.115628253778</v>
+        <v>770.4131933699881</v>
       </c>
       <c r="Y7" t="n">
-        <v>827.323049110248</v>
+        <v>549.620614226458</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943748</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>231.8553933260938</v>
+        <v>479.6639240396553</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
         <v>163.8377936138381</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>928.4460540812028</v>
       </c>
       <c r="X10" t="n">
-        <v>452.6479724696239</v>
+        <v>700.4565031831854</v>
       </c>
       <c r="Y10" t="n">
-        <v>231.8553933260938</v>
+        <v>479.6639240396553</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,19 +5124,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876684</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597615</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474257</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474257</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>261.8464821474257</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>94.65038286230566</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396416</v>
+        <v>1487.074331943035</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1197.657161906075</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614382</v>
+        <v>969.6676110080573</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179081</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="14">
@@ -5258,70 +5258,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400672</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121604</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.1035305473703</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C19" t="n">
-        <v>915.1035305473703</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>764.9868911350345</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>617.0737975526414</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856862</v>
+        <v>734.6461798836004</v>
       </c>
       <c r="C22" t="n">
-        <v>639.9526724577793</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>489.8360330454435</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>341.9229394630504</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>341.9229394630504</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.0422355233313</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1060525954244</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>553.1252546331712</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>406.2353071352608</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>239.0392078501407</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>97.32737669233879</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.6907003535711</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6488,7 +6488,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2402.78281474869</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6605733532803</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253734</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7603,16 +7603,16 @@
         <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1721.508338262028</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.091168225067</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.10161732705</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.30903818352</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589524</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>231.2582814363245</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>255.5251385524259</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>24.34068078344405</v>
       </c>
       <c r="H2" t="n">
-        <v>176.9497504232407</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>317.9447407160731</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.4693302300334</v>
+        <v>140.2947128462248</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>52.83923663127396</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823496</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405086</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>14.48117232036668</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>208.7894017452187</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>49.43558426092653</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>60.19363748756501</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012254</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>77.79022981064229</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.52709304639032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>34.09972495271791</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>137.2878198583897</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>50.61478728573221</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>67.52345255978847</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1022963.988173847</v>
+        <v>1022963.988173848</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028984</v>
+        <v>274720.9666028986</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991063</v>
@@ -26320,25 +26320,25 @@
         <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="F2" t="n">
         <v>302679.9748837521</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="H2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="G2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="H2" t="n">
-        <v>302679.9748837523</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="K2" t="n">
-        <v>302679.9748837521</v>
       </c>
       <c r="L2" t="n">
         <v>302679.9748837522</v>
@@ -26347,13 +26347,13 @@
         <v>302679.9748837522</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819087</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85036.34761942347</v>
+        <v>85036.34761942354</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26433,13 +26433,13 @@
         <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744289</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744284</v>
@@ -26451,7 +26451,7 @@
         <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26470,7 +26470,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1018004.937032289</v>
+        <v>-1018226.068346264</v>
       </c>
       <c r="C6" t="n">
-        <v>79430.75428227849</v>
+        <v>79430.7542822785</v>
       </c>
       <c r="D6" t="n">
-        <v>-80584.70846572075</v>
+        <v>-80584.70846572063</v>
       </c>
       <c r="E6" t="n">
-        <v>-132582.2731392546</v>
+        <v>-132617.0110646901</v>
       </c>
       <c r="F6" t="n">
-        <v>192830.1886681008</v>
+        <v>192795.450742665</v>
       </c>
       <c r="G6" t="n">
-        <v>192830.1886681007</v>
+        <v>192795.4507426649</v>
       </c>
       <c r="H6" t="n">
-        <v>192830.188668101</v>
+        <v>192795.4507426651</v>
       </c>
       <c r="I6" t="n">
-        <v>192830.1886681007</v>
+        <v>192795.450742665</v>
       </c>
       <c r="J6" t="n">
-        <v>25225.01085811826</v>
+        <v>25190.27293268246</v>
       </c>
       <c r="K6" t="n">
-        <v>192830.1886681007</v>
+        <v>192795.450742665</v>
       </c>
       <c r="L6" t="n">
-        <v>144536.2186599101</v>
+        <v>144501.4807344742</v>
       </c>
       <c r="M6" t="n">
-        <v>107775.1607325891</v>
+        <v>107740.4228071533</v>
       </c>
       <c r="N6" t="n">
-        <v>192830.1886681008</v>
+        <v>192795.4507426653</v>
       </c>
       <c r="O6" t="n">
-        <v>192830.1886681007</v>
+        <v>192795.4507426652</v>
       </c>
       <c r="P6" t="n">
-        <v>168580.714196721</v>
+        <v>168580.7141967212</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>387.2070219895099</v>
       </c>
       <c r="H2" t="n">
-        <v>124.0688021391647</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>115.3258519193759</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>60.9451849631139</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27594,10 +27594,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>364.0475456478582</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>205.0382038038624</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>145.7334787857887</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>35.88585763435034</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11.86547352390352</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>290.9502639294486</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>99.90939738349464</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>144.4935727450316</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,28 +33023,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681266</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>566.6829634324475</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419607</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409634</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
